--- a/03-系统常量定义.xlsx
+++ b/03-系统常量定义.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="14280" windowHeight="4455" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="14280" windowHeight="4455" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="系统模块定义表" sheetId="1" r:id="rId1"/>
     <sheet name="系统异常定义表" sheetId="2" r:id="rId2"/>
     <sheet name="系统词汇资源定义" sheetId="3" r:id="rId3"/>
     <sheet name="环境常量定义" sheetId="4" r:id="rId4"/>
+    <sheet name="状态代码" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="296">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1163,6 +1164,30 @@
   </si>
   <si>
     <t>ERROR::00000016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统安全开放式API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECURECTRL::OPENAPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE::00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接（安全控制模块）开放式API成功。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1372,7 +1397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1439,11 +1464,187 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2348,61 +2549,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <autoFilter ref="A1:E1048576">
     <filterColumn colId="3"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="序号" dataDxfId="35"/>
-    <tableColumn id="2" name="名称" dataDxfId="34"/>
-    <tableColumn id="3" name="编码" dataDxfId="33"/>
-    <tableColumn id="5" name="上级模块" dataDxfId="32"/>
-    <tableColumn id="4" name="备注" dataDxfId="31"/>
+    <tableColumn id="1" name="序号" dataDxfId="43"/>
+    <tableColumn id="2" name="名称" dataDxfId="42"/>
+    <tableColumn id="3" name="编码" dataDxfId="41"/>
+    <tableColumn id="5" name="上级模块" dataDxfId="40"/>
+    <tableColumn id="4" name="备注" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="A1:G1048576"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="序号" dataDxfId="25"/>
-    <tableColumn id="2" name="异常代码" dataDxfId="24"/>
-    <tableColumn id="3" name="所属模块" dataDxfId="23"/>
-    <tableColumn id="4" name="异常名称" dataDxfId="22"/>
-    <tableColumn id="5" name="异常基本信息(简体中文)" dataDxfId="21"/>
-    <tableColumn id="6" name="异常基本信息(英文)" dataDxfId="20"/>
-    <tableColumn id="7" name="备注" dataDxfId="19"/>
+    <tableColumn id="1" name="序号" dataDxfId="33"/>
+    <tableColumn id="2" name="异常代码" dataDxfId="32"/>
+    <tableColumn id="3" name="所属模块" dataDxfId="31"/>
+    <tableColumn id="4" name="异常名称" dataDxfId="30"/>
+    <tableColumn id="5" name="异常基本信息(简体中文)" dataDxfId="29"/>
+    <tableColumn id="6" name="异常基本信息(英文)" dataDxfId="28"/>
+    <tableColumn id="7" name="备注" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:E1048576"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="序号" dataDxfId="13"/>
-    <tableColumn id="2" name="词汇资源名称" dataDxfId="12"/>
-    <tableColumn id="3" name="词汇(简体中文)" dataDxfId="11"/>
-    <tableColumn id="4" name="词汇(英文)" dataDxfId="10"/>
-    <tableColumn id="5" name="备注" dataDxfId="9"/>
+    <tableColumn id="1" name="序号" dataDxfId="21"/>
+    <tableColumn id="2" name="词汇资源名称" dataDxfId="20"/>
+    <tableColumn id="3" name="词汇(简体中文)" dataDxfId="19"/>
+    <tableColumn id="4" name="词汇(英文)" dataDxfId="18"/>
+    <tableColumn id="5" name="备注" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:D1048576"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="3"/>
-    <tableColumn id="2" name="描述" dataDxfId="2"/>
-    <tableColumn id="3" name="常量值" dataDxfId="1"/>
-    <tableColumn id="4" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="序号" dataDxfId="11"/>
+    <tableColumn id="2" name="描述" dataDxfId="10"/>
+    <tableColumn id="3" name="常量值" dataDxfId="9"/>
+    <tableColumn id="4" name="备注" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:D1048576">
+    <filterColumn colId="2"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="序号" dataDxfId="3"/>
+    <tableColumn id="2" name="状态代码" dataDxfId="1"/>
+    <tableColumn id="4" name="模块" dataDxfId="0"/>
+    <tableColumn id="3" name="描述" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2691,10 +2907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -2808,6 +3024,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2822,7 +3052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -5402,4 +5632,59 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/03-系统常量定义.xlsx
+++ b/03-系统常量定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="14280" windowHeight="4455" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="14280" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统模块定义表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="305">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1188,6 +1188,41 @@
   </si>
   <si>
     <t>连接（安全控制模块）开放式API成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PasswordNeedUpdateError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码已经过期，需要更新！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password has expired, you need to update!</t>
+  </si>
+  <si>
+    <t>ERROR::00000017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DatabaseError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库命令执行异常！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When the system was performing SQL commands, threw an exception!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR::00000018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1491,6 +1526,35 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1555,35 +1619,6 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1596,19 +1631,6 @@
         <bottom style="thin">
           <color theme="6" tint="0.39994506668294322"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="6" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1616,15 +1638,6 @@
         <top style="thin">
           <color theme="6" tint="0.39994506668294322"/>
         </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="6" tint="0.39994506668294322"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1643,6 +1656,28 @@
         <bottom style="thin">
           <color theme="6" tint="0.39994506668294322"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2608,15 +2643,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:D1048576">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:D1048575" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D1048575">
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="3"/>
-    <tableColumn id="2" name="状态代码" dataDxfId="1"/>
-    <tableColumn id="4" name="模块" dataDxfId="0"/>
-    <tableColumn id="3" name="描述" dataDxfId="2"/>
+    <tableColumn id="2" name="状态代码" dataDxfId="2"/>
+    <tableColumn id="4" name="模块" dataDxfId="1"/>
+    <tableColumn id="3" name="描述" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3050,10 +3085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -3063,7 +3098,7 @@
     <col min="3" max="3" width="22.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -3409,6 +3444,46 @@
       </c>
       <c r="F17" s="11" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5638,8 +5713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>

--- a/03-系统常量定义.xlsx
+++ b/03-系统常量定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="14280" windowHeight="4455" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="14280" windowHeight="4455" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="系统模块定义表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="306">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1206,10 +1206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BASIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DatabaseError</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1223,6 +1219,14 @@
   </si>
   <si>
     <t>ERROR::00000018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用开放式API时，缺少必要的HTTP HEADER参数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE::00000002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3087,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -3471,19 +3475,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5711,10 +5715,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -5722,7 +5726,7 @@
     <col min="1" max="1" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -5752,6 +5756,20 @@
       </c>
       <c r="D2" s="7" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
